--- a/biology/Botanique/Dentelle_de_Bruxelles/Dentelle_de_Bruxelles.xlsx
+++ b/biology/Botanique/Dentelle_de_Bruxelles/Dentelle_de_Bruxelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Dentelle de Bruxelles' est un cultivar de rosier obtenu en 1988 par le rosiériste belge Louis Lens. Il est issu d'un croisement 'Kiftsgate' (Murell, 1954) x 'Violet Hood'[1] (Lens, 1973). 
+'Dentelle de Bruxelles' est un cultivar de rosier obtenu en 1988 par le rosiériste belge Louis Lens. Il est issu d'un croisement 'Kiftsgate' (Murell, 1954) x 'Violet Hood' (Lens, 1973). 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Dentelle de Bruxelles' est un rosier grimpant (pouvant être conduit en grand arbuste) à la floraison exubérante en juin d'une multitude de fleurs simples ou mi-doubles laissant la place en septembre à des fruits rouges très décoratifs. Elles sont de couleur rouge violacé à pourpre avec un cœur plus pâle[2], laissant voir de larges étamines d'or et mesurent 4 à 6 cm de diamètre (6 à 19 pétales)[3]. La profusion de fleurs couvre entièrement la plante qui peut atteindre 4 mètres[4] et parfois plus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Dentelle de Bruxelles' est un rosier grimpant (pouvant être conduit en grand arbuste) à la floraison exubérante en juin d'une multitude de fleurs simples ou mi-doubles laissant la place en septembre à des fruits rouges très décoratifs. Elles sont de couleur rouge violacé à pourpre avec un cœur plus pâle, laissant voir de larges étamines d'or et mesurent 4 à 6 cm de diamètre (6 à 19 pétales). La profusion de fleurs couvre entièrement la plante qui peut atteindre 4 mètres et parfois plus.
 Sa zone de rusticité est de 4b à 9b. Cette variété résiste donc aux hivers très rigoureux.
 Cette variété est parfaite grâce à ses longues lianes pour couvrir des arceaux, des pergolas, etc.  
 </t>
